--- a/BBDD/Tranformación.xlsx
+++ b/BBDD/Tranformación.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1daw3\Desktop\programacion\TrabajoFinalMulti\BBDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1daw3\Desktop\TrabajoTaller\BBDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>CLIENTE</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>PIEZAS</t>
-  </si>
-  <si>
-    <t>Id_Facturas</t>
   </si>
   <si>
     <t>Id_Pieza</t>
@@ -534,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,7 +549,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -589,7 +586,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>5</v>
@@ -628,16 +625,16 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>7</v>
@@ -661,7 +658,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -671,10 +668,10 @@
         <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
@@ -683,19 +680,19 @@
         <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
@@ -707,27 +704,27 @@
         <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -736,13 +733,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/BBDD/Tranformación.xlsx
+++ b/BBDD/Tranformación.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>CLIENTE</t>
   </si>
@@ -141,13 +141,19 @@
   </si>
   <si>
     <t>Precio_Total</t>
+  </si>
+  <si>
+    <t>CATEGORIAS</t>
+  </si>
+  <si>
+    <t>Id_Categoria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,13 +171,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
@@ -248,7 +247,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +547,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="2"/>
@@ -573,7 +572,7 @@
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -597,7 +596,7 @@
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -612,7 +611,7 @@
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="2"/>
@@ -621,7 +620,7 @@
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -636,7 +635,7 @@
       <c r="F5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="2"/>
@@ -645,7 +644,7 @@
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -657,7 +656,7 @@
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="2"/>
@@ -667,7 +666,7 @@
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -685,13 +684,15 @@
       <c r="G7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -709,7 +710,7 @@
       <c r="G8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -717,10 +718,10 @@
       <c r="A9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -735,10 +736,10 @@
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="2"/>
@@ -748,15 +749,24 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="9"/>
+    </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
     </row>
